--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
+++ b/ig/ekg/StructureDefinition-medcom-ekg-recording-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T08:35:33+00:00</t>
+    <t>2026-01-28T10:08:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2561,7 +2561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>137</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>184</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>192</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>244</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>252</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>273</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>285</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>298</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>307</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>321</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>327</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>349</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>360</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>363</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>366</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>368</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>372</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>392</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>415</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>419</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>427</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>436</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>452</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>466</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>508</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>519</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>526</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>532</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>540</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>547</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>552</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>606</v>
       </c>
@@ -14279,12 +14279,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO102">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
